--- a/pages/project/templates/project_import_template.xlsx
+++ b/pages/project/templates/project_import_template.xlsx
@@ -15,78 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
-  <si>
-    <t>หมายเหตุเพิ่มเติม</t>
-  </si>
-  <si>
-    <t>SELL001</t>
-  </si>
-  <si>
-    <t>USER001</t>
-  </si>
-  <si>
-    <t>Software Development</t>
-  </si>
-  <si>
-    <t>CT2024-001</t>
-  </si>
-  <si>
-    <t>CUS001</t>
-  </si>
-  <si>
-    <t>Quotation</t>
-  </si>
-  <si>
-    <t>2024-12-31</t>
-  </si>
-  <si>
-    <t>2024-01-15</t>
-  </si>
-  <si>
-    <t>โครงการพัฒนาระบบจัดการข้อมูล</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>Seller ID*</t>
-  </si>
-  <si>
-    <t>Created By*</t>
-  </si>
-  <si>
-    <t>VAT (%)</t>
-  </si>
-  <si>
-    <t>Cost (No VAT)*</t>
-  </si>
-  <si>
-    <t>Sale (No VAT)*</t>
-  </si>
-  <si>
-    <t>Product Name*</t>
-  </si>
-  <si>
-    <t>Contract No.</t>
-  </si>
-  <si>
-    <t>Customer ID*</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <t>Example Project Name</t>
+  </si>
+  <si>
+    <t>Product A</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Project Name*</t>
+  </si>
+  <si>
+    <t>Product*</t>
   </si>
   <si>
     <t>Status*</t>
   </si>
   <si>
-    <t>End Date (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>Start Date (YYYY-MM-DD)*</t>
-  </si>
-  <si>
-    <t>Project Name*</t>
-  </si>
-  <si>
-    <t>คำแนะนำ: ช่องที่มีเครื่องหมาย * จำเป็นต้องกรอก, Status และ Product Name ต้องตรงกับที่มีในระบบ</t>
+    <t>คำแนะนำ: ช่องที่มีเครื่องหมาย * จำเป็นต้องกรอก, Status ต้องเป็นหนึ่งใน (Win, Loss, On Hold, Quotation, Negotiation, Bidding, Cancelled), Product ต้องตรงกับที่มีในระบบ</t>
   </si>
 </sst>
 </file>
@@ -460,7 +409,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,118 +417,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="34.135" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="29.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="24.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="24.708" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" customHeight="1" ht="40">
+    <row r="1" spans="1:3" customHeight="1" ht="40">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>500000</v>
-      </c>
-      <c r="I3">
-        <v>300000</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="G3:G1001">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="B3:B1001">
       <formula1>"BioIDM Face Scan,IBOC,Implementation,MA,Project Management,Smart Emergency,Smart Healthcare,Software Devlopment"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D3:D1001">
-      <formula1>"Win,Bidding,ชนะ (Win),ยื่นประมูล (Bidding),Quotation,ใบเสนอราคา (Quotation)"</formula1>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="A3:A1001">
+      <formula1>"Win,Loss,On Hold,Quotation,Negotiation,Bidding,Cancelled"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/pages/project/templates/project_import_template.xlsx
+++ b/pages/project/templates/project_import_template.xlsx
@@ -1,63 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sales\pages\project\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24601247-F1DA-48F5-BD87-5DFA5FCBB012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="1170" yWindow="300" windowWidth="25080" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Import Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
-  <si>
-    <t>Example Project Name</t>
-  </si>
-  <si>
-    <t>Product A</t>
-  </si>
-  <si>
-    <t>Win</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>Smart Healthcare</t>
+  </si>
+  <si>
+    <t>Point IT Consulting Co.,Ltd.</t>
+  </si>
+  <si>
+    <t>โครงการระบบบริหารจัดการการขาย</t>
+  </si>
+  <si>
+    <t>นำเสนอโครงการ (Presentations)</t>
+  </si>
+  <si>
+    <t>2024-12-31</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Cost Price</t>
+  </si>
+  <si>
+    <t>Sale Price</t>
+  </si>
+  <si>
+    <t>Cost Price (Vat)</t>
+  </si>
+  <si>
+    <t>Sale Price (Vat)</t>
+  </si>
+  <si>
+    <t>Product*</t>
+  </si>
+  <si>
+    <t>Customer Name*</t>
   </si>
   <si>
     <t>Project Name*</t>
   </si>
   <si>
-    <t>Product*</t>
-  </si>
-  <si>
     <t>Status*</t>
   </si>
   <si>
-    <t>คำแนะนำ: ช่องที่มีเครื่องหมาย * จำเป็นต้องกรอก, Status ต้องเป็นหนึ่งใน (Win, Loss, On Hold, Quotation, Negotiation, Bidding, Cancelled), Product ต้องตรงกับที่มีในระบบ</t>
+    <t>Sales Date*</t>
+  </si>
+  <si>
+    <t>คำแนะนำ: 
+- ช่องที่มีเครื่องหมาย * จำเป็นต้องกรอก
+- Sales Date: กรอกในรูปแบบ YYYY-MM-DD
+- Status: เลือกจากรายการที่กำหนดในช่อง dropdown
+- Project Name: กรอกชื่อโครงการ
+- Customer Name: กรอกชื่อบริษัทลูกค้า
+- Product: กรอกชื่อสินค้า
+- ราคาและต้นทุน: กรอกเป็นตัวเลขเท่านั้น
+- Gross Profit: จะคำนวณอัตโนมัติจาก Sale Price - Cost Price</t>
+  </si>
+  <si>
+    <t>ยื่นประมูล (Bidding)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="188" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -104,18 +142,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,64 +460,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customHeight="1" ht="40">
+    <row r="1" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>100000</v>
+      </c>
+      <c r="G3">
+        <v>70000</v>
+      </c>
+      <c r="H3">
+        <v>93457.94</v>
+      </c>
+      <c r="I3">
+        <v>65420.56</v>
+      </c>
+      <c r="J3">
+        <v>28037.38</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45631</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
         <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100000</v>
+      </c>
+      <c r="G4">
+        <v>70000</v>
+      </c>
+      <c r="H4">
+        <v>93457.94</v>
+      </c>
+      <c r="I4">
+        <v>65420.56</v>
+      </c>
+      <c r="J4">
+        <v>28037.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45632</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="B3:B1001">
-      <formula1>"BioIDM Face Scan,IBOC,Implementation,MA,Project Management,Smart Emergency,Smart Healthcare,Software Devlopment"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="decimal" errorStyle="information" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="ค่าไม่ถูกต้อง" error="กรุณากรอกตัวเลขที่มากกว่าหรือเท่ากับ 0" promptTitle="ตัวเลข" prompt="กรุณากรอกตัวเลขที่มากกว่าหรือเท่ากับ 0" sqref="F3:J1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>0</formula1>
+      <formula2>999999999.99</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="A3:A1001">
-      <formula1>"Win,Loss,On Hold,Quotation,Negotiation,Bidding,Cancelled"</formula1>
+    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" errorTitle="ข้อผิดพลาด" error="กรุณาเลือกสถานะจากรายการที่กำหนด" promptTitle="สถานะ" prompt="เลือกสถานะจากรายการ" sqref="B3:B1000" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>"นำเสนอโครงการ (Presentations),ใบเสนอราคา (Quotation),ยื่นประมูล (Bidding),ชนะ (Win),แพ้ (Loss),รอการพิจารณา (On Hold),ยกเลิก (Cancled)"</formula1>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="information" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="วันที่ไม่ถูกต้อง" error="กรุณากรอกวันที่ระหว่างปี 2020-2030" promptTitle="วันที่" prompt="กรุณากรอกวันที่ในรูปแบบ YYYY-MM-DD" sqref="A3:A1000" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>DATE(2020,1,1)</formula1>
+      <formula2>DATE(2030,12,31)</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pages/project/templates/project_import_template.xlsx
+++ b/pages/project/templates/project_import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sales\pages\project\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24601247-F1DA-48F5-BD87-5DFA5FCBB012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B1D2BA-E15C-472D-BE2F-CD42EC708951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="300" windowWidth="25080" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Smart Healthcare</t>
   </si>
@@ -77,18 +77,15 @@
 - ราคาและต้นทุน: กรอกเป็นตัวเลขเท่านั้น
 - Gross Profit: จะคำนวณอัตโนมัติจาก Sale Price - Cost Price</t>
   </si>
-  <si>
-    <t>ยื่นประมูล (Bidding)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="188" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="187" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -99,6 +96,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -142,21 +145,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
@@ -479,21 +486,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -524,73 +531,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>100000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>70000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <v>93457.94</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <v>65420.56</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="7">
         <v>28037.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>45631</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>100000</v>
-      </c>
-      <c r="G4">
-        <v>70000</v>
-      </c>
-      <c r="H4">
-        <v>93457.94</v>
-      </c>
-      <c r="I4">
-        <v>65420.56</v>
-      </c>
-      <c r="J4">
-        <v>28037.38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>45632</v>
       </c>
     </row>
   </sheetData>
